--- a/Sprint 3/WPF-Anwendung/Sprint3WPF/Sprint3WPF/DatenbankSchraube.xlsx
+++ b/Sprint 3/WPF-Anwendung/Sprint3WPF/Sprint3WPF/DatenbankSchraube.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 2\Sprint2WPF\Sprint2WPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Jade\HSP\HSP_Gruppe_F\Sprint 3\WPF-Anwendung\Sprint3WPF\Sprint3WPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-18975" yWindow="2730" windowWidth="17280" windowHeight="8970" activeTab="4"/>
+    <workbookView xWindow="-18045" yWindow="2730" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,88 +691,80 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>23.38</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8.8000000000000007</v>
+      <c r="A10" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26.75</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>33.53</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
-        <v>26.75</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>30</v>
       </c>
-      <c r="C12" s="3">
-        <v>33.53</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>36</v>
       </c>
-      <c r="C13" s="2">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3">
-        <v>51.28</v>
-      </c>
-      <c r="D14" s="3">
-        <v>18.7</v>
+      <c r="B14" s="2">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2">
+        <v>61.31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2">
-        <v>61.31</v>
-      </c>
-      <c r="D15" s="2">
-        <v>22.5</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1275,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
